--- a/Question_Set2/Programming skills/Advanced Networking in Google Cloud Platform (GCP).xlsx
+++ b/Question_Set2/Programming skills/Advanced Networking in Google Cloud Platform (GCP).xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "Your organization is deploying a multi-tier application architecture in GCP, requiring distinct network segments for each tier to enhance security and control traffic flow. This setup necessitates the use of GCP's networking services to create isolated and specifically configured environments.What should you do?", 'ques_type': 2, 'options': ['Utilize Google Cloud Virtual Private Cloud (VPC) to create separate virtual networks for each application tier.', 'Implement Google Cloud Interconnect as a distinct networking solution for each tier.', 'Configure Google Cloud Load Balancer to manage traffic between isolated networks.', 'Set up individual Google Cloud Endpoints for each tier’s network.'], 'score': 'Utilize Google Cloud Virtual Private Cloud (VPC) to create separate virtual networks for each application tier.'}, {'title': 'In a GCP environment holding sensitive data, your security team needs to implement a layered security approach. This includes stateful firewall configurations, custom egress controls based on geographical locations, and integration with third-party intrusion detection system/intrusion prevention system (IDS/IPS) solutions for enhanced monitoring.What should you do?', 'ques_type': 2, 'options': ["Configure GCP's hierarchical firewall policies combined with Cloud Armor for geographical egress controls and integrate with a managed IDS/IPS service.", 'Use Virtual Private Cloud (VPC) firewall rules with network tags and Cloud IDS for advanced threat detection.', 'Implement Cloud NAT with custom rules and partner with a third-party security service for IDS/IPS.', 'Leverage Serverless Virtual Private Cloud (VPC) Access with third-party security connectors and Cloud egress security policies.'], 'score': "Configure GCP's hierarchical firewall policies combined with Cloud Armor for geographical egress controls and integrate with a managed IDS/IPS service."}, {'title': 'Your organization operates a complex multi-regional network in GCP and requires a sophisticated monitoring solution. This solution must provide insights into cross-regional traffic patterns, latency metrics, and automatic anomaly detection for proactive network management.What should you do?', 'ques_type': 2, 'options': ['Combine Google Cloud Network Intelligence Center with Cloud Monitoring and Logging, utilizing advanced metrics and log analysis for anomaly detection.', 'Utilize Virtual Private Cloud (VPC) Flow Logs with Cloud Operations Suite for detailed traffic analysis and latency metrics across regions.', 'Implement Cloud Pub/Sub to aggregate network logs for cross-regional analysis in BigQuery with built-in anomaly detection algorithms.', 'Use network telemetry in Network Intelligence Center along with third-party, AI-driven network analytics tools.'], 'score': 'Combine Google Cloud Network Intelligence Center with Cloud Monitoring and Logging, utilizing advanced metrics and log analysis for anomaly detection.'}, {'title': 'Your enterprise requires a sophisticated networking solution to manage application traffic across GCP and AWS, especially for critical applications with high availability and low latency needs. The solution must optimize traffic flow and automatically adjust to network conditions and outages.What should you do?', 'ques_type': 2, 'options': ['Implement a hybrid topology using Google Cloud Interconnect and AWS Direct Connect, along with Traffic Director for dynamic traffic control.', 'Leverage Cloud VPN for secure connectivity and utilize Google Cloud Load Balancer with multi-cloud routing capabilities for traffic optimization.', 'Configure a multi-cloud network using Cloud Router for dynamic routing and partner with a third-party CDN for global load balancing.', 'Set up Cloud CDN with interconnects to AWS, using Cloud Armor for adaptive traffic control based on network conditions.'], 'score': 'Implement a hybrid topology using Google Cloud Interconnect and AWS Direct Connect, along with Traffic Director for dynamic traffic control.'}]</t>
+    <t>questions = [
+    {
+        "title": "Your organization is deploying a multi-tier application architecture in GCP, requiring distinct network segments for each tier to enhance security and control traffic flow. This setup necessitates the use of GCP's networking services to create isolated and specifically configured environments.What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Utilize Google Cloud Virtual Private Cloud (VPC) to create separate virtual networks for each application tier.",
+            "Implement Google Cloud Interconnect as a distinct networking solution for each tier.",
+            "Configure Google Cloud Load Balancer to manage traffic between isolated networks.",
+            "Set up individual Google Cloud Endpoints for each tier\u2019s network."
+        ],
+        "score": "Utilize Google Cloud Virtual Private Cloud (VPC) to create separate virtual networks for each application tier."
+    },
+    {
+        "title": "In a GCP environment holding sensitive data, your security team needs to implement a layered security approach. This includes stateful firewall configurations, custom egress controls based on geographical locations, and integration with third-party intrusion detection system/intrusion prevention system (IDS/IPS) solutions for enhanced monitoring.What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Configure GCP's hierarchical firewall policies combined with Cloud Armor for geographical egress controls and integrate with a managed IDS/IPS service.",
+            "Use Virtual Private Cloud (VPC) firewall rules with network tags and Cloud IDS for advanced threat detection.",
+            "Implement Cloud NAT with custom rules and partner with a third-party security service for IDS/IPS.",
+            "Leverage Serverless Virtual Private Cloud (VPC) Access with third-party security connectors and Cloud egress security policies."
+        ],
+        "score": "Configure GCP's hierarchical firewall policies combined with Cloud Armor for geographical egress controls and integrate with a managed IDS/IPS service."
+    },
+    {
+        "title": "Your organization operates a complex multi-regional network in GCP and requires a sophisticated monitoring solution. This solution must provide insights into cross-regional traffic patterns, latency metrics, and automatic anomaly detection for proactive network management.What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Combine Google Cloud Network Intelligence Center with Cloud Monitoring and Logging, utilizing advanced metrics and log analysis for anomaly detection.",
+            "Utilize Virtual Private Cloud (VPC) Flow Logs with Cloud Operations Suite for detailed traffic analysis and latency metrics across regions.",
+            "Implement Cloud Pub/Sub to aggregate network logs for cross-regional analysis in BigQuery with built-in anomaly detection algorithms.",
+            "Use network telemetry in Network Intelligence Center along with third-party, AI-driven network analytics tools."
+        ],
+        "score": "Combine Google Cloud Network Intelligence Center with Cloud Monitoring and Logging, utilizing advanced metrics and log analysis for anomaly detection."
+    },
+    {
+        "title": "Your enterprise requires a sophisticated networking solution to manage application traffic across GCP and AWS, especially for critical applications with high availability and low latency needs. The solution must optimize traffic flow and automatically adjust to network conditions and outages.What should you do?",
+        "ques_type": 2,
+        "options": [
+            "Implement a hybrid topology using Google Cloud Interconnect and AWS Direct Connect, along with Traffic Director for dynamic traffic control.",
+            "Leverage Cloud VPN for secure connectivity and utilize Google Cloud Load Balancer with multi-cloud routing capabilities for traffic optimization.",
+            "Configure a multi-cloud network using Cloud Router for dynamic routing and partner with a third-party CDN for global load balancing.",
+            "Set up Cloud CDN with interconnects to AWS, using Cloud Armor for adaptive traffic control based on network conditions."
+        ],
+        "score": "Implement a hybrid topology using Google Cloud Interconnect and AWS Direct Connect, along with Traffic Director for dynamic traffic control."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
